--- a/Excel/SkillConfig@cs.xlsx
+++ b/Excel/SkillConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -46,6 +46,9 @@
     <t>冷却时间</t>
   </si>
   <si>
+    <t>施法模式（0：距离不够则选最大施法范围ps选目标的则不施法;1:距离不够走到最远距离施法）</t>
+  </si>
+  <si>
     <t>技能预览类型(0大圈选一个目标，1大圈选小圈，2从脚底出发指向型……)</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>CDTime</t>
+  </si>
+  <si>
+    <t>Mode</t>
   </si>
   <si>
     <t>PreviewType</t>
@@ -158,39 +164,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,23 +178,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,42 +246,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +269,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -288,22 +291,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,25 +336,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,145 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +521,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,17 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -555,6 +559,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,42 +613,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +626,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1116,12 +1122,13 @@
     <col min="9" max="9" width="12.3166666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.2166666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.675" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="28.3916666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.675" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
+    <row r="1" ht="16.5" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1133,8 +1140,9 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:12">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1148,8 +1156,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" ht="86" customHeight="1" spans="1:14">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -1185,11 +1194,14 @@
       <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:14">
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -1197,75 +1209,81 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:14">
+      <c r="N4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:14">
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1276,28 +1294,29 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="3:14">
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:15">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
@@ -1306,28 +1325,29 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="1">
+      <c r="L7" s="3"/>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="3:14">
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="3:15">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
@@ -1336,27 +1356,27 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="3:14">
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="3:15">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
@@ -1365,24 +1385,27 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="5:5">
